--- a/biology/Zoologie/Centrolene_quindianum/Centrolene_quindianum.xlsx
+++ b/biology/Zoologie/Centrolene_quindianum/Centrolene_quindianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Centrolene" quindianum
-"Centrolene" quindianum est une espèce d'amphibiens de la famille des Centrolenidae[1]. Depuis la redéfinition du genre Centrolene, il est évident que C. quindianum n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle.
+"Centrolene" quindianum est une espèce d'amphibiens de la famille des Centrolenidae. Depuis la redéfinition du genre Centrolene, il est évident que C. quindianum n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie[1]. Elle se rencontre dans les départements de Cauca, de Risaralda et de Quindío de 1 900 à 2 050 m d'altitude sur le versant Ouest de la cordillère Centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre dans les départements de Cauca, de Risaralda et de Quindío de 1 900 à 2 050 m d'altitude sur le versant Ouest de la cordillère Centrale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 24,0 à 26,6 mm et les femelles de 24,6 à 24,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 24,0 à 26,6 mm et les femelles de 24,6 à 24,9 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ruiz-Carranza &amp; Lynch, 1995 : Ranas Centrolenidae de Colombia VIII. Cuatro nuevas especies de Centrolene  de la Cordillera Central. Lozania, vol. 65, p. 1-16.</t>
         </is>
